--- a/saida.xlsx
+++ b/saida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,31 +569,6 @@
           <t>ORF fim 5</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Inicio 6</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Fim 6</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Score Especifico 6</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>ORF inicio 6</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>ORF fim 6</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,7 +693,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -731,11 +706,6 @@
           <t>2833</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -750,154 +720,109 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>661</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>929</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>28.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>661</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>927</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>929.0</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>28.43</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1173.0</t>
+          <t>1229</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1377</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1301.0</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>1377</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>1585.0</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>1749</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
+          <t>1585</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1035,11 +960,6 @@
           <t>2617</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/saida.xlsx
+++ b/saida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,56 @@
           <t>ORF fim 5</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio 6</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Fim 6</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Score Especifico 6</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>ORF inicio 6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ORF fim 6</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio 7</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Fim 7</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Score Especifico 7</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>ORF inicio 7</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>ORF fim 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -578,17 +628,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">127.334131 </t>
+          <t xml:space="preserve">140.154175 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>409</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -598,72 +648,72 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>407</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>468</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>1135</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>1134</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>71.38</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>468</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1133</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1273</t>
+          <t>1189</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>27.08</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>1191</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2452</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -673,22 +723,22 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2448</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>2706</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2833</t>
+          <t>2830</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -698,268 +748,5095 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2833</t>
-        </is>
-      </c>
+          <t>2830</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dmelanogaster01</t>
+          <t>Dequinoxialis02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">34.156665 </t>
+          <t xml:space="preserve">125.932068 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.43</t>
+          <t>26.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>501</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>73.63</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>502</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1296</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1585</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2549</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>2106</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>2549</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Dequinoxialis03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">109.331580 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1295</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1293</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>1503</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>1886</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>1504</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>1884</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>2103</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>2548</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>2105</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>2548</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dequinoxialis04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">144.134961 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1296</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1296</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2576</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>37.57</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2576</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dmelanogaster02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">118.642542 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2462</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2535</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2571</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>2536</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>2571</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dmelanogaster03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123.442273 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>53.23</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1296</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1296</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2577</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>2577</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Dmelanogaster04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123.981885 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>54.16</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>2579</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2579</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dmelanogaster05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">125.055750 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>54.16</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2579</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2579</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Dmelanogaster06</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">136.852246 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2578</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2578</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dmelanogaster07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">117.105518 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dmelanogaster10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">114.202173 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>53.23</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2361</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2361</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dmelanogaster11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">118.481616 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>1362</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1362</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2129</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2574</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2574</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dmelanogaster12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">98.928491 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dmelanogaster13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">121.831091 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>1298</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>1298</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>2461</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>2459</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>2690</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>2619</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>2690</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dmelanogaster14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">122.034155 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>53.23</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2530</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>2530</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dmelanogaster16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">101.516711 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>50.71</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1653</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>1652</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2579</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>2579</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Dmelanogaster17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112.376233 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>72.46</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2128</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2455</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2684</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2684</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Dmelanogaster21</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">121.385181 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1656</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>2561</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2561</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Dmelanogaster23</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">124.279102 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>54.16</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>2464</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2462</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2693</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>2693</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Dmelanogaster24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">129.599780 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1481</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1483</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2584</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>2584</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dmelanogaster25</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105.235449 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>2566</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2566</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Dmelanogaster26</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">101.850134 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>2558</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>2558</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dmelanogaster28</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">115.640967 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>2567</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>31.40</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2567</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Dmelanogaster29</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105.209058 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dmelanogaster30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">130.002148 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2366</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2366</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Dmelanogaster33</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.876233 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Dprosaltans01</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">107.760645 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>432</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">108.483215 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>13.71</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>491</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1158</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1144</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>68.77</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>492</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>1157</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1216</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1256</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1256</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1366</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1942</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1366</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>1941</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>2241</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2617</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>26.91</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2243</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2617</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Dsaltans01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80.103955 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>1141</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2109</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>2452</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dsaltans02</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89.225983 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>1144</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2187</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>2189</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Dsturtevanti01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">124.401880 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1154</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>2119</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2348</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>2348</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Dsturtevanti02</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">121.597229 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>62.96</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>2380</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2379</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Dtropicalis01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">103.489978 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>27.13</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1182</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2532</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>2098</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>2532</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>2687</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>2812</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>2687</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2812</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Dwillistoni06</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">130.157373 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Dwillistoni07</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123.137097 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>55.59</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>2084</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/saida.xlsx
+++ b/saida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK35"/>
+  <dimension ref="A1:AR35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,152 +471,187 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>pb 1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Inicio 2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Fim 2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Score Especifico 2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ORF inicio 2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ORF fim 2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>pb 2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Inicio 3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Fim 3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Score Especifico 3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ORF inicio 3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ORF fim 3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>pb 3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Inicio 4</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Fim 4</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Score Especifico 4</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ORF inicio 4</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>ORF fim 4</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>pb 4</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Inicio 5</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Fim 5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Score Especifico 5</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>ORF inicio 5</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>ORF fim 5</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>pb 5</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Inicio 6</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Fim 6</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Score Especifico 6</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>ORF inicio 6</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>ORF fim 6</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>pb 6</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Inicio 7</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Fim 7</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Score Especifico 7</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>ORF inicio 7</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>ORF fim 7</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>pb 7</t>
         </is>
       </c>
     </row>
@@ -658,114 +693,141 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>468</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>1135</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>71.38</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>469</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1134</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>1189</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>1914</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>27.08</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>1191</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>1913</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>2105</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>2449</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>32.47</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>2107</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>2448</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>2706</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>2830</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>0.60</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>2708</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>2830</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -805,134 +867,165 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>1168</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>73.63</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>1221</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>1296</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>3.56</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>1223</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>1294</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>1504</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>1887</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>5.29</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>1505</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>1885</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>1996</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>1997</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>2104</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2549</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>37.20</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>2106</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>2549</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -972,152 +1065,187 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>734</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>16.61</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>732</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>791</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>40.89</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>792</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>1166</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>1220</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>1295</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>3.56</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>1222</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>1293</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>1503</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>1886</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>5.29</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>1504</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>1884</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>1995</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>1996</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>2103</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>2548</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>36.84</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>2105</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>2548</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>444</t>
         </is>
       </c>
     </row>
@@ -1159,114 +1287,141 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>496</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>1163</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>72.19</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>497</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1162</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1217</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>1296</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>2.70</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>1219</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>1296</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>1365</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>1920</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>28.56</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>1365</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>1919</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>2131</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>2576</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>37.57</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>2133</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>2576</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1306,134 +1461,165 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>984</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>47.27</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>984</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1123</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>4.48</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>1123</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>1368</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>1944</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>24.23</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>1368</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>1943</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>2135</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>31.25</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>2137</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>2460</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>2535</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>2571</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>5.37</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>2536</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>2571</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1473,134 +1659,165 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>1015</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>53.23</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1013</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>6.88</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>1122</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>1163</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>1218</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>1296</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>3.89</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>1219</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>1296</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>1365</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>1941</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>24.33</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>1365</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>1940</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>2132</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2577</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>35.06</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>2577</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1640,114 +1857,141 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>499</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>1015</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>54.16</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1015</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>4.48</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>1367</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>1943</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>24.23</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>1367</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>1942</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>2579</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>33.98</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>2136</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>2579</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1787,114 +2031,141 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>499</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>1015</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>54.16</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1015</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>4.48</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>1367</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1943</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>24.23</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>1367</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>1942</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>2579</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>35.06</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>2136</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>2579</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1934,114 +2205,141 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>498</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>73.54</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>499</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1164</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>1218</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>1297</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>4.43</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>1220</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>1297</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>1366</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1942</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>24.23</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>1366</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>1941</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>2133</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>2578</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>35.06</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>2135</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>2578</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2081,114 +2379,141 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>576</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>1014</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>42.70</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>1012</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>1070</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>1164</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>1071</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>1163</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>1218</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>1943</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>28.42</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>1220</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>1942</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>2363</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>20.76</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>2136</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2363</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2228,114 +2553,141 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>499</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>1014</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>53.23</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1012</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>1070</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>1164</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>1071</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>1163</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>1259</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1915</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>18.31</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>1261</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>1914</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
         <is>
           <t>2132</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>2361</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>20.76</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>2361</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2375,114 +2727,141 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>525</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>1163</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>67.45</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>527</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>1162</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>1216</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>1262</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>9.57</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>1218</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>1262</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
         <is>
           <t>1362</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>1938</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>23.75</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>1362</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>1937</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
         <is>
           <t>2129</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>2574</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>35.06</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>2131</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2574</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2522,134 +2901,165 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>528</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>732</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>10.03</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>530</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>730</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>789</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>1014</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>23.78</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>790</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>1014</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
         <is>
           <t>1120</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>1164</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>4.48</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>1120</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>1164</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>1365</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>1941</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>24.23</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>1365</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>1940</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
         <is>
           <t>2132</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>2529</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AI14" t="inlineStr">
         <is>
           <t>25.31</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>2529</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2689,152 +3099,187 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>733</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>15.89</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>731</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>790</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>1166</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>41.86</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>791</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
         <is>
           <t>1219</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>1298</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>4.43</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>1221</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>1298</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
         <is>
           <t>1367</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>1943</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>24.23</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>1367</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>1942</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>2461</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AI15" t="inlineStr">
         <is>
           <t>31.25</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>2136</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>2459</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
         <is>
           <t>2618</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>2690</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>5.15</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>2619</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>2690</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -2876,134 +3321,165 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>1015</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>53.23</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>1013</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>1071</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>1072</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>1164</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
         <is>
           <t>1218</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1297</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>4.43</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>1220</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>1297</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
         <is>
           <t>1366</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>1942</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>24.23</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>1366</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1941</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2133</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>2530</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AI16" t="inlineStr">
         <is>
           <t>25.31</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>2135</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>2530</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3043,134 +3519,165 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>1012</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>50.71</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>1071</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>1072</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>1164</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
         <is>
           <t>1219</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>1653</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>8.15</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>1221</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>1652</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
         <is>
           <t>1707</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>1943</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>2.42</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>1709</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>1942</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>2579</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AI17" t="inlineStr">
         <is>
           <t>35.06</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>2136</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>2579</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3210,83 +3717,99 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>495</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>1162</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>72.46</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>496</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>1161</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>2128</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>2455</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>31.25</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>2130</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>2453</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
         <is>
           <t>2612</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>2684</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5.15</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>2613</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>2684</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -3298,6 +3821,13 @@
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3337,114 +3867,141 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>1168</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>71.38</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>1222</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>1656</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>8.15</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>1224</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>1655</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>2.42</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>1712</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
         <is>
           <t>2137</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>2561</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>30.68</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>2139</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>2561</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3484,134 +4041,165 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>1017</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>54.16</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>1017</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>1123</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>4.48</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>1123</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>1370</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>23.75</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>1370</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
         <is>
           <t>2137</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>2464</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>30.08</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
         <is>
           <t>2139</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
         <is>
           <t>2621</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>2693</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AI20" t="inlineStr">
         <is>
           <t>5.15</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>2622</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>2693</t>
         </is>
       </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3651,83 +4239,99 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>1168</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>73.54</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>1481</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>8.42</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>1483</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>1944</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
         <is>
           <t>2136</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>2584</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>30.23</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>2138</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>2584</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
@@ -3739,6 +4343,13 @@
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3778,114 +4389,141 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>562</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>975</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>39.24</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>564</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>974</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>1107</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>1151</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>5.79</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>1109</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>1150</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
         <is>
           <t>1205</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>1930</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>27.88</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>1207</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>1929</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
         <is>
           <t>2121</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>2566</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>35.06</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>2123</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>2566</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3925,134 +4563,165 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>732</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>15.43</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>731</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>800</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>988</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>14.61</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>802</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>987</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
         <is>
           <t>1120</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>1164</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>5.79</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>1122</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>1163</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
         <is>
           <t>1218</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>1943</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>28.51</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>1220</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>1942</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
         <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>2558</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AI23" t="inlineStr">
         <is>
           <t>28.05</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>2136</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>2558</t>
         </is>
       </c>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4092,114 +4761,141 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>734</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>15.80</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>732</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>791</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>41.92</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>792</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>1166</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
         <is>
           <t>1248</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t>17.70</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>1250</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
         <is>
           <t>2137</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>2567</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>31.40</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>2139</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>2567</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4239,134 +4935,165 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>733</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>15.89</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>731</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>801</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>988</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>12.47</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>802</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>987</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
         <is>
           <t>1120</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>1164</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>5.79</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>1122</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>1163</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
         <is>
           <t>1218</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>1943</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>28.42</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>1220</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>1942</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
         <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>2570</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AI25" t="inlineStr">
         <is>
           <t>30.67</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>2136</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>2570</t>
         </is>
       </c>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4406,114 +5133,141 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>1168</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>72.19</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>1221</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>1300</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>1223</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>1300</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
         <is>
           <t>1370</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>23.21</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>1370</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
         <is>
           <t>2137</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>2366</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>20.76</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>2139</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>2366</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4553,83 +5307,99 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>73.54</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>1166</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>1221</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>28.42</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>1223</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
         <is>
           <t>2137</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>2582</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t>35.06</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>2139</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>2582</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
@@ -4641,6 +5411,13 @@
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4680,83 +5457,99 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>477</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>1144</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>68.77</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>1143</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>1196</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>1921</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>26.01</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>1198</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>1920</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
         <is>
           <t>2220</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>2557</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t>19.37</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>2222</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>2557</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
@@ -4768,6 +5561,13 @@
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4807,134 +5607,165 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>328</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>423</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>5.96</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>421</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>482</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>634</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>11.10</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>632</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
         <is>
           <t>747</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>1141</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t>39.41</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>748</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>1140</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
         <is>
           <t>1220</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="AB29" t="inlineStr">
         <is>
           <t>1918</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>9.20</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>1222</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>1917</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
         <is>
           <t>2109</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AH29" t="inlineStr">
         <is>
           <t>2453</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AI29" t="inlineStr">
         <is>
           <t>35.71</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AJ29" t="inlineStr">
         <is>
           <t>2111</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t>2452</t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4974,134 +5805,165 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>287</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>420</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>11.75</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>287</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>418</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>749</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>11.64</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>479</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>748</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>813</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>1145</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>33.48</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>815</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>1144</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
         <is>
           <t>1199</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t>1924</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>25.43</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>1201</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>1923</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
         <is>
           <t>2187</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>2560</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AI30" t="inlineStr">
         <is>
           <t>22.86</t>
         </is>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AJ30" t="inlineStr">
         <is>
           <t>2189</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AK30" t="inlineStr">
         <is>
           <t>2560</t>
         </is>
       </c>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5141,83 +6003,99 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>496</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>1154</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>60.76</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>497</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>1153</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>1208</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>1870</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>26.82</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>1210</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>1869</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>2119</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>2348</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t>22.74</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>2121</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>2348</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
@@ -5229,6 +6107,13 @@
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5268,134 +6153,165 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>531</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>1168</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>62.96</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>532</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>1222</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>1301</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>1.81</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>1224</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>1301</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>1371</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>1947</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t>21.37</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>1371</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="Y32" t="inlineStr">
         <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
         <is>
           <t>2138</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t>2380</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>26.19</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>2140</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>2379</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>2613</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AI32" t="inlineStr">
         <is>
           <t>2.11</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AJ32" t="inlineStr">
         <is>
           <t>2539</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AK32" t="inlineStr">
         <is>
           <t>2613</t>
         </is>
       </c>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5435,114 +6351,141 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>786</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>35.38</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>787</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>1125</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>1180</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>1905</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>27.13</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>1182</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>1904</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>2096</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>2532</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>32.19</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>2098</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>2532</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
         <is>
           <t>2687</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="AB33" t="inlineStr">
         <is>
           <t>2812</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>2.47</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AD33" t="inlineStr">
         <is>
           <t>2687</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AE33" t="inlineStr">
         <is>
           <t>2812</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5582,114 +6525,141 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>734</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>15.17</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>732</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
         <is>
           <t>791</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>41.86</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>792</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>1166</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>1221</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>28.69</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>1223</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
         <is>
           <t>2137</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="AB34" t="inlineStr">
         <is>
           <t>2582</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>35.42</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>2139</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>2582</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5729,114 +6699,141 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>449</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>939</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>55.59</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>938</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
         <is>
           <t>1070</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>1114</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>5.79</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>1072</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>1113</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
         <is>
           <t>1168</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>1893</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t>28.42</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>1170</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>1892</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
         <is>
           <t>2084</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>2529</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>35.06</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AD35" t="inlineStr">
         <is>
           <t>2086</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AE35" t="inlineStr">
         <is>
           <t>2529</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/saida.xlsx
+++ b/saida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR35"/>
+  <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1426,194 +1426,170 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dmelanogaster02</t>
+          <t>Dmelanogaster01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">118.642542 </t>
+          <t>erro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>229</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>438</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>210</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>575</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>731</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>47.27</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>576</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>731</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>156</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>789</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>37.46</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>789</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>375</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2135</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2462</t>
+          <t>2575</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2575</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2535</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>2571</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>2536</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>2571</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
@@ -1624,22 +1600,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dmelanogaster03</t>
+          <t>Dmelanogaster02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">123.442273 </t>
+          <t xml:space="preserve">118.642542 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1649,12 +1625,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1664,152 +1640,152 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>984</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>53.23</t>
+          <t>47.27</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>502</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>984</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>483</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1296</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>24.23</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1296</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>576</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>324</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2132</t>
+          <t>2535</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>2577</t>
+          <t>2571</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>35.06</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2134</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2577</t>
+          <t>2571</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr"/>
@@ -1822,22 +1798,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dmelanogaster04</t>
+          <t>Dmelanogaster03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">123.981885 </t>
+          <t xml:space="preserve">123.442273 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1847,12 +1823,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1862,7 +1838,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>500</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1872,22 +1848,22 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>54.16</t>
+          <t>53.23</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>501</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>513</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1902,90 +1878,114 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1296</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1296</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>576</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>2577</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>2579</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>33.98</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>2136</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>2579</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>2577</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
         <is>
           <t>444</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
@@ -1996,22 +1996,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dmelanogaster05</t>
+          <t>Dmelanogaster04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">125.055750 </t>
+          <t xml:space="preserve">123.981885 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>438</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>35.06</t>
+          <t>33.98</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2170,22 +2170,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dmelanogaster06</t>
+          <t>Dmelanogaster05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">136.852246 </t>
+          <t xml:space="preserve">125.055750 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2195,12 +2195,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2210,89 +2210,89 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>499</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>54.16</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>73.54</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>499</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1164</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>666</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1297</t>
-        </is>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1121</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>45</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>1942</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>24.23</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>1366</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>1941</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
           <t>576</t>
@@ -2300,12 +2300,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2133</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>2579</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2135</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>2579</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2344,37 +2344,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dmelanogaster07</t>
+          <t>Dmelanogaster06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">117.105518 </t>
+          <t xml:space="preserve">136.852246 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.45</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>151</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>438</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2384,122 +2384,122 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
           <t>576</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1014</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>42.70</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>578</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1012</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1070</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1164</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1071</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1163</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>1943</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>28.42</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>1942</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>723</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2134</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2363</t>
+          <t>2578</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2136</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2363</t>
+          <t>2578</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>444</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr"/>
@@ -2518,39 +2518,39 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dmelanogaster10</t>
+          <t>Dmelanogaster07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">114.202173 </t>
+          <t xml:space="preserve">117.105518 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>440</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>438</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>288</t>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>576</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2568,12 +2568,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>53.23</t>
+          <t>42.70</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>578</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>435</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2618,42 +2618,42 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>18.31</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>723</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2132</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>2363</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2134</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>2363</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2692,162 +2692,162 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dmelanogaster11</t>
+          <t>Dmelanogaster10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">118.481616 </t>
+          <t xml:space="preserve">114.202173 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>26.04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>151</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>438</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>499</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>53.23</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>1163</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>67.45</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>1162</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>636</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1216</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1262</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1262</t>
-        </is>
-      </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>93</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>18.31</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>654</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2129</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2361</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>35.06</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2131</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2361</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>228</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr"/>
@@ -2866,37 +2866,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dmelanogaster12</t>
+          <t>Dmelanogaster11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">98.928491 </t>
+          <t xml:space="preserve">118.481616 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>425</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21.38</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>149</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>424</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2906,154 +2906,130 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>525</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>67.45</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>527</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>636</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>23.78</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>45</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>23.75</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>576</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>2129</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>2131</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>2132</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>2529</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>25.31</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>2134</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>2529</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>396</t>
-        </is>
-      </c>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
@@ -3064,12 +3040,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dmelanogaster13</t>
+          <t>Dmelanogaster12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">121.831091 </t>
+          <t xml:space="preserve">98.928491 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3079,12 +3055,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>428</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>21.38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3094,112 +3070,112 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>427</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>528</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>732</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>530</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>730</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>201</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>790</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>1166</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>41.86</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>791</t>
-        </is>
-      </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>225</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3209,12 +3185,12 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -3224,74 +3200,50 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
           <t>2134</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>2461</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>2136</t>
-        </is>
-      </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>2459</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>2618</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>2690</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>2619</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>2690</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dmelanogaster14</t>
+          <t>Dmelanogaster13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">122.034155 </t>
+          <t xml:space="preserve">121.831091 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3331,12 +3283,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>733</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>53.23</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -3346,52 +3298,52 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>731</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>231</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>790</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>1072</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1164</t>
-        </is>
-      </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>375</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -3401,12 +3353,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3416,29 +3368,29 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
           <t>1942</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>24.23</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>1366</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>1941</t>
-        </is>
-      </c>
       <c r="AF16" t="inlineStr">
         <is>
           <t>576</t>
@@ -3446,55 +3398,79 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>2133</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>2461</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>25.31</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>2135</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>2459</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>396</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>2690</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>2619</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>2690</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dmelanogaster16</t>
+          <t>Dmelanogaster14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">101.516711 </t>
+          <t xml:space="preserve">122.034155 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3504,12 +3480,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3519,7 +3495,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3529,12 +3505,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>50.71</t>
+          <t>53.23</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3544,12 +3520,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>513</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3584,92 +3560,92 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1366</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>24.23</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1366</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>576</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>2134</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>35.06</t>
+          <t>25.31</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>2136</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>396</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr"/>
@@ -3682,146 +3658,194 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dmelanogaster17</t>
+          <t>Dmelanogaster16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">112.376233 </t>
+          <t xml:space="preserve">101.516711 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>230</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>210</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>500</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>72.46</t>
+          <t>50.71</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>501</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>510</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2128</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2453</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>93</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2612</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>1652</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>2579</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>2579</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
@@ -3832,37 +3856,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dmelanogaster21</t>
+          <t>Dmelanogaster17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">121.385181 </t>
+          <t xml:space="preserve">112.376233 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>436</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>26.58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>147</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>434</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3872,27 +3896,27 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>495</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>71.38</t>
+          <t>72.46</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>496</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3902,94 +3926,70 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>2128</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>2453</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>324</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>2684</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>2684</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>2137</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>2561</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>30.68</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>2139</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>2561</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>423</t>
-        </is>
-      </c>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
@@ -4006,12 +4006,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dmelanogaster23</t>
+          <t>Dmelanogaster21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">124.279102 </t>
+          <t xml:space="preserve">121.385181 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4051,12 +4051,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>54.16</t>
+          <t>71.38</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -4066,47 +4066,47 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>432</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -4116,12 +4116,12 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1712</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>234</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>2561</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>30.08</t>
+          <t>30.68</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -4156,44 +4156,20 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2462</t>
+          <t>2561</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>2621</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>2693</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>2622</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>2693</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
@@ -4204,12 +4180,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dmelanogaster24</t>
+          <t>Dmelanogaster23</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.599780 </t>
+          <t xml:space="preserve">124.279102 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4249,12 +4225,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>73.54</t>
+          <t>54.16</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -4264,86 +4240,134 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>666</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1481</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>1483</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1944</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>462</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>2136</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>2584</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>30.23</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>2138</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>2584</t>
-        </is>
-      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>447</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>2464</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>2462</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>2693</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>2693</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
@@ -4354,164 +4378,140 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dmelanogaster25</t>
+          <t>Dmelanogaster24</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">105.235449 </t>
+          <t xml:space="preserve">129.599780 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17.72</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>39.24</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>502</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>1481</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>462</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>2584</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>30.23</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>2584</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>723</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>2121</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>2566</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>35.06</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>2123</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>2566</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
@@ -4528,194 +4528,170 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dmelanogaster26</t>
+          <t>Dmelanogaster25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">101.850134 </t>
+          <t xml:space="preserve">105.235449 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>427</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>17.72</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>295</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>426</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>132</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>562</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>975</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>15.43</t>
+          <t>39.24</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>564</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>974</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>411</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>42</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>723</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>28.51</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>723</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>2134</t>
-        </is>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>2558</t>
-        </is>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>28.05</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>2136</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>2558</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>423</t>
-        </is>
-      </c>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
@@ -4726,67 +4702,67 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dmelanogaster28</t>
+          <t>Dmelanogaster26</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">115.640967 </t>
+          <t xml:space="preserve">101.850134 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>27.39</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>227</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>213</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>734</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>15.80</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>731</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4796,100 +4772,124 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>800</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>988</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>41.92</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>802</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>987</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>186</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>17.70</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>31.40</t>
+          <t>28.51</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>429</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>2558</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>2558</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
@@ -4900,67 +4900,67 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dmelanogaster29</t>
+          <t>Dmelanogaster28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">105.209058 </t>
+          <t xml:space="preserve">115.640967 </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>27.39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>734</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>15.80</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>502</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>732</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -4970,124 +4970,100 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>791</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>41.92</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>792</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>375</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>17.70</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>696</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>2567</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>28.42</t>
+          <t>31.40</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>2567</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>723</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>2134</t>
-        </is>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>2570</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>30.67</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>2136</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>2570</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
@@ -5098,170 +5074,194 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dmelanogaster30</t>
+          <t>Dmelanogaster29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">130.002148 </t>
+          <t xml:space="preserve">105.209058 </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>227</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>213</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1168</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>72.19</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>731</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>231</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>801</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>988</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>802</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>987</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>186</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>23.21</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2366</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>2366</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
@@ -5272,22 +5272,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dmelanogaster33</t>
+          <t>Dmelanogaster30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">145.876233 </t>
+          <t xml:space="preserve">130.002148 </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5312,29 +5312,29 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>73.54</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1166</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>666</t>
@@ -5347,65 +5347,89 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>28.42</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>1223</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>723</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
         <is>
           <t>2137</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>2582</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>35.06</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2366</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
         <is>
           <t>2139</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>2582</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>2366</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
@@ -5422,67 +5446,67 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dprosaltans01</t>
+          <t>Dmelanogaster33</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">108.483215 </t>
+          <t xml:space="preserve">145.876233 </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>500</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>68.77</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>501</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5492,27 +5516,27 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>26.01</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -5522,32 +5546,32 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>444</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr"/>
@@ -5572,194 +5596,146 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dsaltans01</t>
+          <t>Dprosaltans01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">80.103955 </t>
+          <t xml:space="preserve">108.483215 </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>418</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>177</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>416</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>477</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>1144</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>68.77</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>478</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>26.01</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>723</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>2557</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>39.41</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>2557</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>393</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>1918</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>1222</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>1917</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>696</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>2109</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>2453</t>
-        </is>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>35.71</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>2111</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>2452</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
@@ -5770,192 +5746,192 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dsaltans02</t>
+          <t>Dsaltans01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">89.225983 </t>
+          <t xml:space="preserve">80.103955 </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>212</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>328</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>423</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>329</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>421</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>93</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>482</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>634</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>11.10</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>483</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>1141</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
           <t>748</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>813</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>1145</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>33.48</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>815</t>
-        </is>
-      </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>393</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>25.43</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>696</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>2187</t>
+          <t>2109</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2453</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>22.86</t>
+          <t>35.71</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>2189</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2452</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>342</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr"/>
@@ -5968,146 +5944,194 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dsturtevanti01</t>
+          <t>Dsaltans02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">124.401880 </t>
+          <t xml:space="preserve">89.225983 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>89</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23.08</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>89</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>287</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>420</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>60.76</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>287</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>418</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>132</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>478</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>749</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>26.82</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>479</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>748</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>270</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2119</t>
+          <t>813</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>2348</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>22.74</t>
+          <t>33.48</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>815</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2348</t>
+          <t>1144</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>2187</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>2189</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
@@ -6118,12 +6142,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dsturtevanti02</t>
+          <t>Dsturtevanti01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">121.597229 </t>
+          <t xml:space="preserve">124.401880 </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6133,12 +6157,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>439</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>24.69</t>
+          <t>23.08</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6148,164 +6172,116 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>437</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>285</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>496</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>62.96</t>
+          <t>60.76</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>497</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>657</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1870</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>26.82</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>660</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>1371</t>
+          <t>2119</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>2348</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>21.37</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>1371</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>2348</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>2138</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>2380</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>26.19</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>2140</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>2379</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>2537</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>2613</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>2539</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>2613</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
@@ -6316,12 +6292,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dtropicalis01</t>
+          <t>Dsturtevanti02</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">103.489978 </t>
+          <t xml:space="preserve">121.597229 </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6336,7 +6312,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>25.41</t>
+          <t>24.69</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6356,130 +6332,154 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>531</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>35.38</t>
+          <t>62.96</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>532</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>636</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>27.13</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>78</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>1371</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>32.19</t>
+          <t>21.37</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>1371</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>576</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>26.19</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>2140</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
@@ -6490,12 +6490,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dwillistoni06</t>
+          <t>Dtropicalis01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">130.157373 </t>
+          <t xml:space="preserve">103.489978 </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>25.41</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6530,122 +6530,122 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>786</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>35.38</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>787</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>339</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>41.86</t>
+          <t>27.13</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1904</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>723</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>2532</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>28.69</t>
+          <t>32.19</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>2532</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>435</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>2687</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>35.42</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>2687</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>126</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr"/>
@@ -6664,127 +6664,127 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dwillistoni07</t>
+          <t>Dwillistoni06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">123.137097 </t>
+          <t xml:space="preserve">130.157373 </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18.53</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>734</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>55.59</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>502</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>732</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>231</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>791</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>41.86</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>792</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>375</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>28.42</t>
+          <t>28.69</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -6794,27 +6794,27 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2084</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>35.06</t>
+          <t>35.42</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
@@ -6835,6 +6835,180 @@
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Dwillistoni07</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123.137097 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>55.59</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2084</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/saida.xlsx
+++ b/saida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR36"/>
+  <dimension ref="A1:AR55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2692,39 +2692,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dmelanogaster10</t>
+          <t>Dmelanogaster08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">114.202173 </t>
+          <t xml:space="preserve">107.561975 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>440</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>438</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>288</t>
@@ -2732,298 +2732,322 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>734</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>53.23</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>502</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>732</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>231</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>791</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>1071</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1163</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>1259</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1915</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>18.31</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>1261</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>1914</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>654</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2132</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2134</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dmelanogaster11</t>
+          <t>Dmelanogaster09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">118.481616 </t>
+          <t xml:space="preserve">141.000378 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>67.45</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>502</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>723</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>2367</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>2140</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>2367</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>2129</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>2574</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>35.06</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>2131</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>2574</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
@@ -3040,194 +3064,170 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dmelanogaster12</t>
+          <t>Dmelanogaster10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">98.928491 </t>
+          <t xml:space="preserve">114.202173 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>440</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>21.38</t>
+          <t>26.04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>438</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>499</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>53.23</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>500</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>513</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>23.78</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>93</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>18.31</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>654</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>2361</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>2361</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>2132</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>2529</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>25.31</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>2134</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>2529</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>396</t>
-        </is>
-      </c>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
@@ -3238,234 +3238,186 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dmelanogaster13</t>
+          <t>Dmelanogaster11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">121.831091 </t>
+          <t xml:space="preserve">118.481616 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>425</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>149</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>424</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>525</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>67.45</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>527</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>636</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>41.86</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>45</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>23.75</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>576</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>2129</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>2131</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>2134</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>2461</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>2136</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>2459</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>2618</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>2690</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>2619</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>2690</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dmelanogaster14</t>
+          <t>Dmelanogaster12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">122.034155 </t>
+          <t xml:space="preserve">98.928491 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3475,12 +3427,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>428</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>21.38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3490,112 +3442,112 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>427</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>276</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>528</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>732</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>53.23</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>530</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>730</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>201</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>789</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>23.78</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>790</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
           <t>1164</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>1297</t>
-        </is>
-      </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3605,12 +3557,12 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -3620,12 +3572,12 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>2133</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3635,12 +3587,12 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>2135</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -3658,17 +3610,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dmelanogaster16</t>
+          <t>Dmelanogaster13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">101.516711 </t>
+          <t xml:space="preserve">121.831091 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3678,12 +3630,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3693,7 +3645,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3703,12 +3655,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>733</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>50.71</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3718,42 +3670,42 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>731</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>231</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>790</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>1165</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>1072</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1164</t>
-        </is>
-      </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>375</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3763,12 +3715,12 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -3778,17 +3730,17 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -3798,12 +3750,12 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>24.23</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -3813,7 +3765,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>576</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3823,12 +3775,12 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>2461</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>35.06</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -3838,55 +3790,79 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>2459</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>2690</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>2619</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>2690</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dmelanogaster17</t>
+          <t>Dmelanogaster14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">112.376233 </t>
+          <t xml:space="preserve">122.034155 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3896,106 +3872,154 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>500</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>72.46</t>
+          <t>53.23</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>501</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>513</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2128</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>31.25</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2453</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>93</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2612</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>2530</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>2530</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
@@ -4006,22 +4030,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dmelanogaster21</t>
+          <t>Dmelanogaster15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">121.385181 </t>
+          <t xml:space="preserve">108.194141 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4031,12 +4055,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4046,326 +4070,374 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1168</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>71.38</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>731</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>231</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>790</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>22.86</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>791</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>222</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>30.68</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>423</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>2579</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>2579</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dmelanogaster23</t>
+          <t>Dmelanogaster16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">124.279102 </t>
+          <t xml:space="preserve">101.516711 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>230</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>210</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>50.71</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>1017</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>54.16</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>510</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>93</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1652</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>432</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>30.08</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2462</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>234</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>2621</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>2693</t>
+          <t>2579</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>2693</t>
+          <t>2579</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>444</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr"/>
@@ -4378,37 +4450,37 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dmelanogaster24</t>
+          <t>Dmelanogaster17</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">129.599780 </t>
+          <t xml:space="preserve">112.376233 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>436</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>26.58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>147</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>434</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4418,27 +4490,27 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>495</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>73.54</t>
+          <t>72.46</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>496</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4448,62 +4520,62 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1481</t>
+          <t>2128</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>2453</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>324</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2136</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>2684</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>30.23</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>2138</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>2684</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
@@ -4528,164 +4600,140 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dmelanogaster25</t>
+          <t>Dmelanogaster18</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">105.235449 </t>
+          <t xml:space="preserve">151.488464 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17.72</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>39.24</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>502</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>723</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>2573</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>27.88</t>
+          <t>30.39</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>2573</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>723</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>2121</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>2566</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>35.06</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>2123</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>2566</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
@@ -4702,194 +4750,170 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dmelanogaster26</t>
+          <t>Dmelanogaster19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">101.850134 </t>
+          <t xml:space="preserve">122.388354 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>441</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>21.00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>439</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>732</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>15.43</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>501</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>731</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>988</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>14.61</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>802</t>
-        </is>
-      </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>666</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>576</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>28.51</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>723</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>2134</t>
-        </is>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>2558</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>28.05</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>2136</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>2558</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>423</t>
-        </is>
-      </c>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
@@ -4900,12 +4924,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dmelanogaster28</t>
+          <t>Dmelanogaster20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">115.640967 </t>
+          <t xml:space="preserve">145.880042 </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4920,7 +4944,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27.39</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4945,12 +4969,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>15.80</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4960,104 +4984,80 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>41.92</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>723</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>17.70</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>696</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>2137</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>2567</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>31.40</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>2139</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>2567</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>429</t>
-        </is>
-      </c>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
@@ -5074,194 +5074,170 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dmelanogaster29</t>
+          <t>Dmelanogaster21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">105.209058 </t>
+          <t xml:space="preserve">121.385181 </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>71.38</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>502</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>432</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1712</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>234</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>2561</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>28.42</t>
+          <t>30.68</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>2561</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>723</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>2134</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>2570</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>30.67</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>2136</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>2570</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
@@ -5272,12 +5248,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dmelanogaster30</t>
+          <t>Dmelanogaster22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">130.002148 </t>
+          <t xml:space="preserve">115.019250 </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5292,7 +5268,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5312,27 +5288,27 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>501</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1168</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>72.19</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>502</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5342,92 +5318,92 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>213</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>23.21</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>312</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2366</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>20.76</t>
+          <t>34.43</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>2139</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>2366</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>444</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr"/>
@@ -5446,22 +5422,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dmelanogaster33</t>
+          <t>Dmelanogaster23</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">145.876233 </t>
+          <t xml:space="preserve">124.279102 </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5471,12 +5447,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5486,106 +5462,154 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>54.16</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>73.54</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1166</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>666</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>1221</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
         <is>
           <t>1946</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>28.42</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>1223</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>723</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
         <is>
           <t>2137</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>2582</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>35.06</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2464</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
         <is>
           <t>2139</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>2582</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>2462</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>2693</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>2693</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
@@ -5596,67 +5620,67 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dprosaltans01</t>
+          <t>Dmelanogaster24</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">108.483215 </t>
+          <t xml:space="preserve">129.599780 </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>68.77</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>502</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5666,62 +5690,62 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>1481</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>26.01</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>462</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>2584</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>30.23</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>2584</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>447</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr"/>
@@ -5746,194 +5770,170 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dsaltans01</t>
+          <t>Dmelanogaster25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">80.103955 </t>
+          <t xml:space="preserve">105.235449 </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>427</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>17.72</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>295</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>426</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>132</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>562</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>975</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>39.24</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>564</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>974</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>411</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>42</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>39.41</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>723</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>696</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>2109</t>
-        </is>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>2453</t>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>35.71</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>2111</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>2452</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
@@ -5944,157 +5944,157 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dsaltans02</t>
+          <t>Dmelanogaster26</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">89.225983 </t>
+          <t xml:space="preserve">101.850134 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>227</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>213</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>500</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>732</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>15.43</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>501</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>731</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>231</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>800</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>988</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>802</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>987</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>186</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>25.43</t>
+          <t>28.51</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -6104,32 +6104,32 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>2187</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2558</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>22.86</t>
+          <t>28.05</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>2189</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2558</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>423</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr"/>
@@ -6142,12 +6142,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dsturtevanti01</t>
+          <t>Dmelanogaster27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">124.401880 </t>
+          <t xml:space="preserve">135.779248 </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6157,12 +6157,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>23.08</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6172,102 +6172,102 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>500</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>60.76</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>501</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>26.82</t>
+          <t>18.70</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>696</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2119</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>2348</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>22.74</t>
+          <t>35.06</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2348</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>444</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
@@ -6292,12 +6292,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dsturtevanti02</t>
+          <t>Dmelanogaster28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">121.597229 </t>
+          <t xml:space="preserve">115.640967 </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>24.69</t>
+          <t>27.39</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6332,154 +6332,130 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>734</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>62.96</t>
+          <t>15.80</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>502</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
           <t>1167</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>636</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>1222</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>41.92</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>792</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>375</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>1371</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>21.37</t>
+          <t>17.70</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>1371</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>696</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2138</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>2567</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>26.19</t>
+          <t>31.40</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>2140</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2567</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>2537</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>2613</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>2539</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>2613</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
@@ -6490,170 +6466,194 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dtropicalis01</t>
+          <t>Dmelanogaster29</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">103.489978 </t>
+          <t xml:space="preserve">105.209058 </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>441</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>25.41</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>227</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>213</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>500</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>733</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>35.38</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>501</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>731</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>231</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>801</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>988</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>27.13</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>802</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>987</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
           <t>723</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>2096</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>2532</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>32.19</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>2098</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>2532</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
         <is>
           <t>435</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>2687</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>2812</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>2687</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>2812</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
@@ -6664,12 +6664,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dwillistoni06</t>
+          <t>Dmelanogaster30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">130.157373 </t>
+          <t xml:space="preserve">130.002148 </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6709,12 +6709,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>72.19</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -6724,47 +6724,47 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>41.86</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>78</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -6774,12 +6774,12 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>28.69</t>
+          <t>23.21</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>576</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -6799,12 +6799,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>2366</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>35.42</t>
+          <t>20.76</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
@@ -6814,12 +6814,12 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>2366</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>228</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr"/>
@@ -6838,164 +6838,140 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dwillistoni07</t>
+          <t>Dmelanogaster31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">123.137097 </t>
+          <t xml:space="preserve">135.403784 </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>18.53</t>
+          <t>26.94</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>440</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>288</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>501</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>55.59</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>502</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>666</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>17.28</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>681</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>28.42</t>
+          <t>36.18</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>723</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>2084</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>2529</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>35.06</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>2086</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>2529</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
           <t>444</t>
         </is>
       </c>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
@@ -7009,6 +6985,3120 @@
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Dmelanogaster32</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">124.675940 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1369</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>1369</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>2581</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>2581</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Dmelanogaster33</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.876233 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Dmelanogaster34</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.874072 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dprosaltans01</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">108.483215 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1144</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Dsaltans01</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80.103955 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>1141</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>1917</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>2109</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>2452</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Dsaltans02</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89.225983 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>1144</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>2187</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>2189</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Dsturtevanti01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">124.401880 </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1154</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2119</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>2348</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2348</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Dsturtevanti02</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">121.597229 </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>62.96</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>2380</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>2379</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Dtropicalis01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">103.489978 </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>35.38</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>27.13</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>1182</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>2532</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>2098</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2532</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2687</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>2812</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>2687</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>2812</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Dwillistoni01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.874072 </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Dwillistoni02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.874072 </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Dwillistoni03</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.874072 </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Dwillistoni04</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.874072 </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Dwillistoni05</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">134.308105 </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>2567</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>31.40</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>2567</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Dwillistoni06</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">130.157373 </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>1223</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Dwillistoni07</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123.137097 </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>55.59</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2084</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Dwillistoni08</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.874072 </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Dwillistoni09</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.874072 </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Dwillistoni10</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">145.874072 </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>2140</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
